--- a/biology/Médecine/Santé_Diabète/Santé_Diabète.xlsx
+++ b/biology/Médecine/Santé_Diabète/Santé_Diabète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Diab%C3%A8te</t>
+          <t>Santé_Diabète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Santé Diabète est une organisation non gouvernementale (ONG) française dont le siège est basé à Grenoble (France) et qui travaille sur le renforcement des systèmes de santé pour améliorer la prévention et la prise en charge du diabète en Afrique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Diab%C3%A8te</t>
+          <t>Santé_Diabète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ONG Santé Diabète a été créée en 2001[1], sous le nom Santé Diabète Mali, par Stéphane Besançon, actuel directeur général de l’organisation[2].
-Santé Diabète a été créée à la suite d'un travail de recherche réalisé au Mali sur le fonio[3] (céréale présente en Afrique de l’Ouest) et le diabète avec le Centre international de recherche agronomique pour le développement (CIRAD), qui a permis à Stéphane Besançon de prendre conscience de l'épidémie que représente le diabète sur le continent africain, le manque d’accès aux soins pour les personnes atteintes de diabète en Afrique et surtout l’absence de prise en compte de cette problématique par les acteurs du développement (bailleurs de fonds, Organisations des Nations Unies, ONG)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ONG Santé Diabète a été créée en 2001, sous le nom Santé Diabète Mali, par Stéphane Besançon, actuel directeur général de l’organisation.
+Santé Diabète a été créée à la suite d'un travail de recherche réalisé au Mali sur le fonio (céréale présente en Afrique de l’Ouest) et le diabète avec le Centre international de recherche agronomique pour le développement (CIRAD), qui a permis à Stéphane Besançon de prendre conscience de l'épidémie que représente le diabète sur le continent africain, le manque d’accès aux soins pour les personnes atteintes de diabète en Afrique et surtout l’absence de prise en compte de cette problématique par les acteurs du développement (bailleurs de fonds, Organisations des Nations Unies, ONG).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Diab%C3%A8te</t>
+          <t>Santé_Diabète</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,17 +558,19 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santé Diabète met l'accent sur le renforcement des systèmes de santé pour améliorer la prévention et la prise en charge du diabète, par le développement de projets de terrain à long terme, la mise en place de projets de recherche et des expertises dans différents pays d'Afrique[5],[6]. Cela se concrétise en pratique par le développement de six axes[7],[8],[9] :
-investissement dans la prévention primaire pour réduire le poids humain et économique de la progression de la maladie[10] ;
-investissement dans la décentralisation des soins pour garantir l’accessibilité géographique des populations à une prise en charge de qualité[11],[12] ;
-investissement dans la prévention secondaire et tertiaire “éducation thérapeutique” pour réduire le fardeau des complications dues au diabète[13] ;
-investissement dans la réduction des coûts de prise en charge pour l’accessibilité géographique des populations à une prise en charge de qualité[14],[15] ;
-investissement dans une approche intégrée incluant une participation active des patients et de leurs familles à travers leurs associations en promouvant les mécanismes d’auto gestion et de plaidoyer leur permettant ainsi la défense de leurs droits[16] ;
-investissement dans la recherche – action pour développer des approches innovantes[17].
-Cette approche est développée sur le terrain avec l’ensemble des partenaires institutionnels (autorités politiques, autorités administratives et collectivités comme la région de Tombouctou ou de Kayes au Mali. Ce positionnement, en assistance technique pour appuyer les politiques de prévention et de prise en charge du diabète mises en œuvre par les États, propose des interventions pour obtenir des solutions à long terme[18]. En parallèle à ces interventions de terrain, l’ONG Santé Diabète appuie ou a appuyé des gouvernements, comme l'Union des Comores ou la Guinée, dans le développement ou la mise en œuvre de leur politique de lutte contre le diabète.
-Depuis 2011, l’ONG Santé Diabète s'est également investie en France dans le développement de projets d’éducation au développement et à la solidarité internationale[19], mais également en apportant les expertises acquises sur le terrain pour apporter de nouvelles compétences dans le système de santé français en partenariat avec différents acteurs de ce système[20].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santé Diabète met l'accent sur le renforcement des systèmes de santé pour améliorer la prévention et la prise en charge du diabète, par le développement de projets de terrain à long terme, la mise en place de projets de recherche et des expertises dans différents pays d'Afrique,. Cela se concrétise en pratique par le développement de six axes :
+investissement dans la prévention primaire pour réduire le poids humain et économique de la progression de la maladie ;
+investissement dans la décentralisation des soins pour garantir l’accessibilité géographique des populations à une prise en charge de qualité, ;
+investissement dans la prévention secondaire et tertiaire “éducation thérapeutique” pour réduire le fardeau des complications dues au diabète ;
+investissement dans la réduction des coûts de prise en charge pour l’accessibilité géographique des populations à une prise en charge de qualité, ;
+investissement dans une approche intégrée incluant une participation active des patients et de leurs familles à travers leurs associations en promouvant les mécanismes d’auto gestion et de plaidoyer leur permettant ainsi la défense de leurs droits ;
+investissement dans la recherche – action pour développer des approches innovantes.
+Cette approche est développée sur le terrain avec l’ensemble des partenaires institutionnels (autorités politiques, autorités administratives et collectivités comme la région de Tombouctou ou de Kayes au Mali. Ce positionnement, en assistance technique pour appuyer les politiques de prévention et de prise en charge du diabète mises en œuvre par les États, propose des interventions pour obtenir des solutions à long terme. En parallèle à ces interventions de terrain, l’ONG Santé Diabète appuie ou a appuyé des gouvernements, comme l'Union des Comores ou la Guinée, dans le développement ou la mise en œuvre de leur politique de lutte contre le diabète.
+Depuis 2011, l’ONG Santé Diabète s'est également investie en France dans le développement de projets d’éducation au développement et à la solidarité internationale, mais également en apportant les expertises acquises sur le terrain pour apporter de nouvelles compétences dans le système de santé français en partenariat avec différents acteurs de ce système.
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Diab%C3%A8te</t>
+          <t>Santé_Diabète</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,11 +599,13 @@
           <t>Zones d'interventions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santé Diabète développe des projets de terrain[21] au Mali, au Burkina Faso, au Sénégal et dans l'Union des Comores.
-Des recherches et actions universitaires existent aussi[22] au Bénin et en Guinée.
-Le siège en France développe des actions d’éducation au développement (EAD), des collaborations avec les organismes français de santé (Centres Hospitaliers Universitaires, Institut de Formation Infirmier...) et enfin travaille sur les questions de droit au séjour pour raison médicale (Aide médicale d'état) en France pour les personnes atteintes de diabète[23],[24],[25],[26].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santé Diabète développe des projets de terrain au Mali, au Burkina Faso, au Sénégal et dans l'Union des Comores.
+Des recherches et actions universitaires existent aussi au Bénin et en Guinée.
+Le siège en France développe des actions d’éducation au développement (EAD), des collaborations avec les organismes français de santé (Centres Hospitaliers Universitaires, Institut de Formation Infirmier...) et enfin travaille sur les questions de droit au séjour pour raison médicale (Aide médicale d'état) en France pour les personnes atteintes de diabète.
 </t>
         </is>
       </c>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Diab%C3%A8te</t>
+          <t>Santé_Diabète</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,10 +634,12 @@
           <t>Engagements internationaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santé Diabète est engagée, depuis plusieurs années, dans de très nombreux sommets internationaux pour porter la voix des patients diabétiques africains. Ainsi, elle a été un des acteurs de la "Déclaration de Brazzaville sur la prévention et le contrôle des Maladies Non Transmissibles (MNT) dans la région Africaine de l'OMS"[27],[28]. Cette déclaration a été adoptée lors de la consultation ministérielle africaine sur les MNT. Cette réunion des ministres de la Santé de la région africaine était préparatoire à la conférence mondiale ministérielle sur les MNT les 28 au 29 avril 2011 à Moscou (Russie)[29] et au sommet des chefs d'état et de gouvernement sur la prévention et la lutte contre les MNT, en septembre 2011 à New York, durant l'Assemblée Générale des Nations unies[30].
-Elle a aussi été une des 25 structures mondiales qui ont participé à Copenhague au « Expert meeting on indigenous peoples, diabetes and development[31] » et qui ont finalisé l'appel à l'action internationale : « Copenhagen Call To Action on Diabetes amongst Indigenous People[32] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santé Diabète est engagée, depuis plusieurs années, dans de très nombreux sommets internationaux pour porter la voix des patients diabétiques africains. Ainsi, elle a été un des acteurs de la "Déclaration de Brazzaville sur la prévention et le contrôle des Maladies Non Transmissibles (MNT) dans la région Africaine de l'OMS",. Cette déclaration a été adoptée lors de la consultation ministérielle africaine sur les MNT. Cette réunion des ministres de la Santé de la région africaine était préparatoire à la conférence mondiale ministérielle sur les MNT les 28 au 29 avril 2011 à Moscou (Russie) et au sommet des chefs d'état et de gouvernement sur la prévention et la lutte contre les MNT, en septembre 2011 à New York, durant l'Assemblée Générale des Nations unies.
+Elle a aussi été une des 25 structures mondiales qui ont participé à Copenhague au « Expert meeting on indigenous peoples, diabetes and development » et qui ont finalisé l'appel à l'action internationale : « Copenhagen Call To Action on Diabetes amongst Indigenous People ».
 Le 1er juin 2015, le Directeur Général de l'ONG Santé Diabète a été reçu par la présidence de la République Française au Palais de l'Élysée pour porter le plaidoyer sur la problématique du diabète en Afrique au plus haut niveau de l'État français.
 </t>
         </is>
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Diab%C3%A8te</t>
+          <t>Santé_Diabète</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,10 +671,49 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Livres
-Stéphane Besançon et Kaushik Ramaiya. Diabète Afrique. Édition ONG Santé Diabète, 2010, 80 pages.
-Publications
-Betz Brown J, Ramaiya K, Besançon S, Rheeder P, Mapa Tassou C, Mbanya J.C, Kissimova-Skarbek K, Wangechi Njenga E, Wangui Muchemi E, Kiambuthi Wanjiru H, Schneide E. Use of Medical Services and Medicines Attributable to Diabetes in Sub-Saharan Africa, Plos One, Septembre 2014
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Stéphane Besançon et Kaushik Ramaiya. Diabète Afrique. Édition ONG Santé Diabète, 2010, 80 pages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santé_Diabète</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Diab%C3%A8te</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publication et conférences</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Betz Brown J, Ramaiya K, Besançon S, Rheeder P, Mapa Tassou C, Mbanya J.C, Kissimova-Skarbek K, Wangechi Njenga E, Wangui Muchemi E, Kiambuthi Wanjiru H, Schneide E. Use of Medical Services and Medicines Attributable to Diabetes in Sub-Saharan Africa, Plos One, Septembre 2014
 Besançon S, Beran D, Bouenizabila E. Accès à l'insuline dans les pays en voie de développement: une problématique complexe. Médecine des Maladies Métaboliques, Avril 2014
 Besançon S, Sidibé A, Traoré B, Amadou D, Djeugoue P, Coulon AL, Halimi S. Injecter de l’aide dans une région oubliée. Diabetes Voice, Volume 59, Mars 2014
 Besançon S, Sidibé A. Le diabète : un enjeu de santé publique au Mali. Soins, N°781, Décembre 2013
@@ -669,9 +728,43 @@
 Besancon S, Sidibé AT, Nientao I, Sow DS. Comment a été développé le programme de prévention et de prise en charge spécifique du pied diabétique au Mali ?. Développement et Santé, Juillet 2009
 Beran D, Besançon S, Sidibé AT. Le diabète un nouvel enjeu de santé publique pour les pays en voie de développement : l’exemple du Mali. Médecine des maladies Métaboliques, Mars 2007
 Besançon S. L’Association Malienne de Lutte contre le Diabète. Diabetes voice, Volume 51 Numéro 3, Septembre 2006
-Beran D, Besançon S. Report of the International Insulin Foundation on the assessment protocol for insulin access in Mali, Décembre 2004
-Conférences
-Symposium international de Libreville sur le diabète (2014). Besançon S. “Apport des pairs éducateurs dans l’éducation thérapeutique des patients diabétiques au Mali”. Libreville, Gabon, 6 et 7 juin 2014
+Beran D, Besançon S. Report of the International Insulin Foundation on the assessment protocol for insulin access in Mali, Décembre 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Santé_Diabète</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Diab%C3%A8te</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publication et conférences</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Conférences</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Symposium international de Libreville sur le diabète (2014). Besançon S. “Apport des pairs éducateurs dans l’éducation thérapeutique des patients diabétiques au Mali”. Libreville, Gabon, 6 et 7 juin 2014
 Médecins Sans Frontière (MSF) International Diabetes Workshop (2014). Besançon S. “Management of diabetes in emergency contexts: a case study from Mali”. Genève, Suisse , 3 et 4 juin 2014
 Médecins Sans Frontière (MSF) International Diabetes Workshop (2014). Besançon S. “Advocacy and International network on diabetes management in Africa”. Genève, Suisse , 3 et 4 juin 2014
 2nd African Diabetes Summit (2014). Besançon S., "Diabetes in war and conflicts" et "Emergencies and catastrophes" Yaounde, Cameroun, February 25th to 28th, 2014
